--- a/public/Sales_Report_Every_Year.xlsx
+++ b/public/Sales_Report_Every_Year.xlsx
@@ -360,7 +360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,18 +378,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2">
-        <v>45288.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2024</v>
-      </c>
-      <c r="B3">
-        <v>34663.25</v>
+        <v>35235.0</v>
       </c>
     </row>
   </sheetData>
